--- a/재능.xlsx
+++ b/재능.xlsx
@@ -224,61 +224,61 @@
     <t>투사체_속도_증가</t>
   </si>
   <si>
-    <t>투사체 &lt;color=ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 1)</t>
+    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 1)</t>
   </si>
   <si>
     <t>talent_projectile_speed_02</t>
   </si>
   <si>
-    <t>투사체 &lt;color=ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 2)</t>
+    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 2)</t>
   </si>
   <si>
     <t>talent_projectile_speed_03</t>
   </si>
   <si>
-    <t>투사체 &lt;color=ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 3)</t>
+    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 3)</t>
   </si>
   <si>
     <t>talent_projectile_speed_04</t>
   </si>
   <si>
-    <t>투사체 &lt;color=ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 4)</t>
+    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 4)</t>
   </si>
   <si>
     <t>talent_projectile_speed_05</t>
   </si>
   <si>
-    <t>투사체 &lt;color=ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 5)</t>
+    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 5)</t>
   </si>
   <si>
     <t>talent_projectile_speed_06</t>
   </si>
   <si>
-    <t>투사체 &lt;color=ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 6)</t>
+    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 6)</t>
   </si>
   <si>
     <t>talent_projectile_speed_07</t>
   </si>
   <si>
-    <t>투사체 &lt;color=ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 7)</t>
+    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 7)</t>
   </si>
   <si>
     <t>talent_projectile_speed_08</t>
   </si>
   <si>
-    <t>투사체 &lt;color=ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 8)</t>
+    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 8)</t>
   </si>
   <si>
     <t>talent_projectile_speed_09</t>
   </si>
   <si>
-    <t>투사체 &lt;color=ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 9)</t>
+    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 9)</t>
   </si>
   <si>
     <t>talent_projectile_speed_10</t>
   </si>
   <si>
-    <t>투사체 &lt;color=ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 10)</t>
+    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 10)</t>
   </si>
   <si>
     <t>talent_move_speed_01</t>
@@ -287,61 +287,61 @@
     <t>이동속도_증가</t>
   </si>
   <si>
-    <t>&lt;color=9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 1)</t>
+    <t>&lt;color=#9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 1)</t>
   </si>
   <si>
     <t>talent_move_speed_02</t>
   </si>
   <si>
-    <t>&lt;color=9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 2)</t>
+    <t>&lt;color=#9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 2)</t>
   </si>
   <si>
     <t>talent_move_speed_03</t>
   </si>
   <si>
-    <t>&lt;color=9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 3)</t>
+    <t>&lt;color=#9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 3)</t>
   </si>
   <si>
     <t>talent_move_speed_04</t>
   </si>
   <si>
-    <t>&lt;color=9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 4)</t>
+    <t>&lt;color=#9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 4)</t>
   </si>
   <si>
     <t>talent_move_speed_05</t>
   </si>
   <si>
-    <t>&lt;color=9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 5)</t>
+    <t>&lt;color=#9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 5)</t>
   </si>
   <si>
     <t>talent_move_speed_06</t>
   </si>
   <si>
-    <t>&lt;color=9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 6)</t>
+    <t>&lt;color=#9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 6)</t>
   </si>
   <si>
     <t>talent_move_speed_07</t>
   </si>
   <si>
-    <t>&lt;color=9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 7)</t>
+    <t>&lt;color=#9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 7)</t>
   </si>
   <si>
     <t>talent_move_speed_08</t>
   </si>
   <si>
-    <t>&lt;color=9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 8)</t>
+    <t>&lt;color=#9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 8)</t>
   </si>
   <si>
     <t>talent_move_speed_09</t>
   </si>
   <si>
-    <t>&lt;color=9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 9)</t>
+    <t>&lt;color=#9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 9)</t>
   </si>
   <si>
     <t>talent_move_speed_10</t>
   </si>
   <si>
-    <t>&lt;color=9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 10)</t>
+    <t>&lt;color=#9999ff&gt; 이동속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 10)</t>
   </si>
   <si>
     <t>talent_attack_speed_01</t>
@@ -350,61 +350,61 @@
     <t>공격_속도_증가</t>
   </si>
   <si>
-    <t>&lt;color=b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 1)</t>
+    <t>&lt;color=#b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 1)</t>
   </si>
   <si>
     <t>talent_attack_speed_02</t>
   </si>
   <si>
-    <t>&lt;color=b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 2)</t>
+    <t>&lt;color=#b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 2)</t>
   </si>
   <si>
     <t>talent_attack_speed_03</t>
   </si>
   <si>
-    <t>&lt;color=b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 3)</t>
+    <t>&lt;color=#b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 3)</t>
   </si>
   <si>
     <t>talent_attack_speed_04</t>
   </si>
   <si>
-    <t>&lt;color=b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 4)</t>
+    <t>&lt;color=#b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 4)</t>
   </si>
   <si>
     <t>talent_attack_speed_05</t>
   </si>
   <si>
-    <t>&lt;color=b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 5)</t>
+    <t>&lt;color=#b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 5)</t>
   </si>
   <si>
     <t>talent_attack_speed_06</t>
   </si>
   <si>
-    <t>&lt;color=b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 6)</t>
+    <t>&lt;color=#b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 6)</t>
   </si>
   <si>
     <t>talent_attack_speed_07</t>
   </si>
   <si>
-    <t>&lt;color=b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 7)</t>
+    <t>&lt;color=#b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 7)</t>
   </si>
   <si>
     <t>talent_attack_speed_08</t>
   </si>
   <si>
-    <t>&lt;color=b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 8)</t>
+    <t>&lt;color=#b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 8)</t>
   </si>
   <si>
     <t>talent_attack_speed_09</t>
   </si>
   <si>
-    <t>&lt;color=b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 9)</t>
+    <t>&lt;color=#b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 9)</t>
   </si>
   <si>
     <t>talent_attack_speed_10</t>
   </si>
   <si>
-    <t>&lt;color=b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 10)</t>
+    <t>&lt;color=#b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 10)</t>
   </si>
   <si>
     <t>talent_gold_gain_01</t>
@@ -413,61 +413,61 @@
     <t>재화_획득량_증가</t>
   </si>
   <si>
-    <t>&lt;color=fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 1)</t>
+    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 1)</t>
   </si>
   <si>
     <t>talent_gold_gain_02</t>
   </si>
   <si>
-    <t>&lt;color=fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
+    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
   </si>
   <si>
     <t>talent_gold_gain_03</t>
   </si>
   <si>
-    <t>&lt;color=fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
+    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
   </si>
   <si>
     <t>talent_gold_gain_04</t>
   </si>
   <si>
-    <t>&lt;color=fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
+    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
   </si>
   <si>
     <t>talent_gold_gain_05</t>
   </si>
   <si>
-    <t>&lt;color=fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
+    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
   </si>
   <si>
     <t>talent_gold_gain_06</t>
   </si>
   <si>
-    <t>&lt;color=fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
+    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
   </si>
   <si>
     <t>talent_gold_gain_07</t>
   </si>
   <si>
-    <t>&lt;color=fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
+    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
   </si>
   <si>
     <t>talent_gold_gain_08</t>
   </si>
   <si>
-    <t>&lt;color=fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
+    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
   </si>
   <si>
     <t>talent_gold_gain_09</t>
   </si>
   <si>
-    <t>&lt;color=fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
+    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
   </si>
   <si>
     <t>talent_gold_gain_10</t>
   </si>
   <si>
-    <t>&lt;color=fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
+    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
   </si>
   <si>
     <t>talent_gold_range_01</t>
@@ -476,61 +476,61 @@
     <t>아이템_획득_범위_증가</t>
   </si>
   <si>
-    <t>아이템 &lt;color=e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 1)</t>
+    <t>아이템 &lt;color=#e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 1)</t>
   </si>
   <si>
     <t>talent_gold_range_02</t>
   </si>
   <si>
-    <t>아이템 &lt;color=e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
+    <t>아이템 &lt;color=#e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
   </si>
   <si>
     <t>talent_gold_range_03</t>
   </si>
   <si>
-    <t>아이템 &lt;color=e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
+    <t>아이템 &lt;color=#e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
   </si>
   <si>
     <t>talent_gold_range_04</t>
   </si>
   <si>
-    <t>아이템 &lt;color=e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
+    <t>아이템 &lt;color=#e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
   </si>
   <si>
     <t>talent_gold_range_05</t>
   </si>
   <si>
-    <t>아이템 &lt;color=e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
+    <t>아이템 &lt;color=#e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
   </si>
   <si>
     <t>talent_gold_range_06</t>
   </si>
   <si>
-    <t>아이템 &lt;color=e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
+    <t>아이템 &lt;color=#e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
   </si>
   <si>
     <t>talent_gold_range_07</t>
   </si>
   <si>
-    <t>아이템 &lt;color=e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
+    <t>아이템 &lt;color=#e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
   </si>
   <si>
     <t>talent_gold_range_08</t>
   </si>
   <si>
-    <t>아이템 &lt;color=e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
+    <t>아이템 &lt;color=#e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
   </si>
   <si>
     <t>talent_gold_range_09</t>
   </si>
   <si>
-    <t>아이템 &lt;color=e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
+    <t>아이템 &lt;color=#e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
   </si>
   <si>
     <t>talent_gold_range_10</t>
   </si>
   <si>
-    <t>아이템 &lt;color=e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
+    <t>아이템 &lt;color=#e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
   </si>
   <si>
     <t>name</t>

--- a/재능.xlsx
+++ b/재능.xlsx
@@ -4,7 +4,6 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="7000~7999" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="시트1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
   <si>
     <t>파일명</t>
   </si>
@@ -532,234 +531,12 @@
   <si>
     <t>아이템 &lt;color=#e533ff&gt; 획득범위 &lt;/color&gt; 증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
   </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>플레이어 공격력 증가 수치가 증가합니다.(현재 재능 레벨: 1)</t>
-  </si>
-  <si>
-    <t>플레이어 공격력 증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
-  </si>
-  <si>
-    <t>플레이어 공격력 증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
-  </si>
-  <si>
-    <t>플레이어 공격력 증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
-  </si>
-  <si>
-    <t>플레이어 공격력 증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
-  </si>
-  <si>
-    <t>플레이어 공격력 증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
-  </si>
-  <si>
-    <t>플레이어 공격력 증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
-  </si>
-  <si>
-    <t>플레이어 공격력 증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
-  </si>
-  <si>
-    <t>플레이어 공격력 증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
-  </si>
-  <si>
-    <t>플레이어 공격력 증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
-  </si>
-  <si>
-    <t>플레이어 체력 증가 수치가 증가합니다. (현재 재능 레벨: 1)</t>
-  </si>
-  <si>
-    <t>플레이어 체력 증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
-  </si>
-  <si>
-    <t>플레이어 체력 증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
-  </si>
-  <si>
-    <t>플레이어 체력 증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
-  </si>
-  <si>
-    <t>플레이어 체력 증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
-  </si>
-  <si>
-    <t>플레이어 체력 증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
-  </si>
-  <si>
-    <t>플레이어 체력 증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
-  </si>
-  <si>
-    <t>플레이어 체력 증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
-  </si>
-  <si>
-    <t>플레이어 체력 증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
-  </si>
-  <si>
-    <t>플레이어 체력 증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
-  </si>
-  <si>
-    <t>투사체 속도 증가 수치가 증가합니다. (현재 재능 레벨: 1)</t>
-  </si>
-  <si>
-    <t>투사체 속도 증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
-  </si>
-  <si>
-    <t>투사체 속도 증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
-  </si>
-  <si>
-    <t>투사체 속도 증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
-  </si>
-  <si>
-    <t>투사체 속도 증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
-  </si>
-  <si>
-    <t>투사체 속도 증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
-  </si>
-  <si>
-    <t>투사체 속도 증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
-  </si>
-  <si>
-    <t>투사체 속도 증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
-  </si>
-  <si>
-    <t>투사체 속도 증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
-  </si>
-  <si>
-    <t>투사체 속도 증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
-  </si>
-  <si>
-    <t>이동속도 증가 수치가 증가합니다. (현재 재능 레벨: 1)</t>
-  </si>
-  <si>
-    <t>이동속도 증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
-  </si>
-  <si>
-    <t>이동속도 증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
-  </si>
-  <si>
-    <t>이동속도 증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
-  </si>
-  <si>
-    <t>이동속도 증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
-  </si>
-  <si>
-    <t>이동속도 증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
-  </si>
-  <si>
-    <t>이동속도 증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
-  </si>
-  <si>
-    <t>이동속도 증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
-  </si>
-  <si>
-    <t>이동속도 증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
-  </si>
-  <si>
-    <t>이동속도 증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
-  </si>
-  <si>
-    <t>공격 속도 증가 수치가 증가합니다. (현재 재능 레벨: 1)</t>
-  </si>
-  <si>
-    <t>공격 속도 증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
-  </si>
-  <si>
-    <t>공격 속도 증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
-  </si>
-  <si>
-    <t>공격 속도 증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
-  </si>
-  <si>
-    <t>공격 속도 증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
-  </si>
-  <si>
-    <t>공격 속도 증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
-  </si>
-  <si>
-    <t>공격 속도 증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
-  </si>
-  <si>
-    <t>공격 속도 증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
-  </si>
-  <si>
-    <t>공격 속도 증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
-  </si>
-  <si>
-    <t>공격 속도 증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
-  </si>
-  <si>
-    <t>재화 획득량 증가 수치가 증가합니다. (현재 재능 레벨: 1)</t>
-  </si>
-  <si>
-    <t>재화 획득량 증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
-  </si>
-  <si>
-    <t>재화 획득량 증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
-  </si>
-  <si>
-    <t>재화 획득량 증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
-  </si>
-  <si>
-    <t>재화 획득량 증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
-  </si>
-  <si>
-    <t>재화 획득량 증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
-  </si>
-  <si>
-    <t>재화 획득량 증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
-  </si>
-  <si>
-    <t>재화 획득량 증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
-  </si>
-  <si>
-    <t>재화 획득량 증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
-  </si>
-  <si>
-    <t>재화 획득량 증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
-  </si>
-  <si>
-    <t>아이템 획득 범위 증가 수치가 증가합니다. (현재 재능 레벨: 1)</t>
-  </si>
-  <si>
-    <t>아이템 획득 범위 증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
-  </si>
-  <si>
-    <t>아이템 획득 범위 증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
-  </si>
-  <si>
-    <t>아이템 획득 범위 증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
-  </si>
-  <si>
-    <t>아이템 획득 범위 증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
-  </si>
-  <si>
-    <t>아이템 획득 범위 증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
-  </si>
-  <si>
-    <t>아이템 획득 범위 증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
-  </si>
-  <si>
-    <t>아이템 획득 범위 증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
-  </si>
-  <si>
-    <t>아이템 획득 범위 증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
-  </si>
-  <si>
-    <t>아이템 획득 범위 증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
-  </si>
-  <si>
-    <t>아이템 획득 범위 증가</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -786,10 +563,6 @@
       <sz val="13.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -857,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -979,22 +752,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1004,10 +761,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1216,7 +969,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="24.57"/>
-    <col customWidth="1" min="3" max="3" width="35.57"/>
+    <col customWidth="1" min="3" max="3" width="7.86"/>
     <col customWidth="1" min="4" max="4" width="21.57"/>
     <col customWidth="1" min="5" max="5" width="7.14"/>
     <col customWidth="1" min="6" max="6" width="12.86"/>
@@ -29545,1547 +29298,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="26.14"/>
-    <col customWidth="1" min="2" max="2" width="23.43"/>
-    <col customWidth="1" min="3" max="3" width="7.14"/>
-    <col customWidth="1" min="4" max="4" width="14.71"/>
-    <col customWidth="1" min="5" max="5" width="59.43"/>
-    <col customWidth="1" min="6" max="6" width="26.43"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="42">
-        <v>6.0</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="42">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="43">
-        <v>12.0</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="43">
-        <v>200.0</v>
-      </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="45">
-        <v>3.0</v>
-      </c>
-      <c r="D4" s="42">
-        <v>18.0</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="42">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="46">
-        <v>4.0</v>
-      </c>
-      <c r="D5" s="43">
-        <v>24.0</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="43">
-        <v>700.0</v>
-      </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="45">
-        <v>5.0</v>
-      </c>
-      <c r="D6" s="42">
-        <v>30.0</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="42">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="46">
-        <v>6.0</v>
-      </c>
-      <c r="D7" s="43">
-        <v>36.0</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="43">
-        <v>1700.0</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="45">
-        <v>7.0</v>
-      </c>
-      <c r="D8" s="42">
-        <v>42.0</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="42">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="45">
-        <v>8.0</v>
-      </c>
-      <c r="D9" s="42">
-        <v>48.0</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="42">
-        <v>3600.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="45">
-        <v>9.0</v>
-      </c>
-      <c r="D10" s="42">
-        <v>54.0</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="42">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="45">
-        <v>10.0</v>
-      </c>
-      <c r="D11" s="42">
-        <v>60.0</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="42">
-        <v>7000.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="45">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="42">
-        <v>10.0</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="42">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="45">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="42">
-        <v>20.0</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" s="42">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="45">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="42">
-        <v>30.0</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="42">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="45">
-        <v>4.0</v>
-      </c>
-      <c r="D15" s="42">
-        <v>40.0</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="42">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="45">
-        <v>5.0</v>
-      </c>
-      <c r="D16" s="42">
-        <v>50.0</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="42">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="45">
-        <v>6.0</v>
-      </c>
-      <c r="D17" s="42">
-        <v>60.0</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="42">
-        <v>1700.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="45">
-        <v>7.0</v>
-      </c>
-      <c r="D18" s="42">
-        <v>70.0</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="42">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="45">
-        <v>8.0</v>
-      </c>
-      <c r="D19" s="42">
-        <v>80.0</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="42">
-        <v>3600.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="45">
-        <v>9.0</v>
-      </c>
-      <c r="D20" s="42">
-        <v>90.0</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="F20" s="42">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="45">
-        <v>10.0</v>
-      </c>
-      <c r="D21" s="42">
-        <v>100.0</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="42">
-        <v>7000.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="45">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="42">
-        <v>10.0</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" s="42">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="45">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="42">
-        <v>20.0</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="42">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="42">
-        <v>3.0</v>
-      </c>
-      <c r="D24" s="42">
-        <v>35.0</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="F24" s="42">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="42">
-        <v>4.0</v>
-      </c>
-      <c r="D25" s="42">
-        <v>55.0</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="42">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="42">
-        <v>5.0</v>
-      </c>
-      <c r="D26" s="42">
-        <v>80.0</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" s="42">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="42">
-        <v>6.0</v>
-      </c>
-      <c r="D27" s="42">
-        <v>110.0</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" s="42">
-        <v>1700.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="42">
-        <v>7.0</v>
-      </c>
-      <c r="D28" s="42">
-        <v>140.0</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" s="42">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="42">
-        <v>8.0</v>
-      </c>
-      <c r="D29" s="42">
-        <v>165.0</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="F29" s="42">
-        <v>3600.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="42">
-        <v>9.0</v>
-      </c>
-      <c r="D30" s="42">
-        <v>185.0</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="42">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="42">
-        <v>10.0</v>
-      </c>
-      <c r="D31" s="42">
-        <v>200.0</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="42">
-        <v>7000.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="42">
-        <v>5.0</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="F32" s="42">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="D33" s="42">
-        <v>10.0</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" s="42">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="42">
-        <v>3.0</v>
-      </c>
-      <c r="D34" s="42">
-        <v>15.0</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="42">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="42">
-        <v>4.0</v>
-      </c>
-      <c r="D35" s="42">
-        <v>20.0</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="42">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="42">
-        <v>5.0</v>
-      </c>
-      <c r="D36" s="42">
-        <v>25.0</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="42">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="42">
-        <v>6.0</v>
-      </c>
-      <c r="D37" s="42">
-        <v>30.0</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="42">
-        <v>1700.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="42">
-        <v>7.0</v>
-      </c>
-      <c r="D38" s="42">
-        <v>35.0</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" s="42">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="42">
-        <v>8.0</v>
-      </c>
-      <c r="D39" s="42">
-        <v>40.0</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="F39" s="42">
-        <v>3600.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="42">
-        <v>9.0</v>
-      </c>
-      <c r="D40" s="42">
-        <v>45.0</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="F40" s="42">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="42">
-        <v>10.0</v>
-      </c>
-      <c r="D41" s="42">
-        <v>50.0</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="F41" s="42">
-        <v>7000.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="D42" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F42" s="42">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="D43" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="F43" s="42">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="42">
-        <v>3.0</v>
-      </c>
-      <c r="D44" s="42">
-        <v>0.45</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="F44" s="42">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="42">
-        <v>4.0</v>
-      </c>
-      <c r="D45" s="42">
-        <v>0.7</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" s="42">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="42">
-        <v>5.0</v>
-      </c>
-      <c r="D46" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="F46" s="42">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="42">
-        <v>6.0</v>
-      </c>
-      <c r="D47" s="42">
-        <v>1.3</v>
-      </c>
-      <c r="E47" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="F47" s="42">
-        <v>1700.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="42">
-        <v>7.0</v>
-      </c>
-      <c r="D48" s="42">
-        <v>1.55</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" s="42">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="42">
-        <v>8.0</v>
-      </c>
-      <c r="D49" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="F49" s="42">
-        <v>3600.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="42">
-        <v>9.0</v>
-      </c>
-      <c r="D50" s="42">
-        <v>1.9</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="F50" s="42">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="42">
-        <v>10.0</v>
-      </c>
-      <c r="D51" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="E51" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="F51" s="42">
-        <v>7000.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="D52" s="42">
-        <v>2.5</v>
-      </c>
-      <c r="E52" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="F52" s="42">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="D53" s="42">
-        <v>5.5</v>
-      </c>
-      <c r="E53" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="F53" s="42">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="42">
-        <v>3.0</v>
-      </c>
-      <c r="D54" s="42">
-        <v>8.5</v>
-      </c>
-      <c r="E54" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="F54" s="42">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="42">
-        <v>4.0</v>
-      </c>
-      <c r="D55" s="42">
-        <v>11.5</v>
-      </c>
-      <c r="E55" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="F55" s="42">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="42">
-        <v>5.0</v>
-      </c>
-      <c r="D56" s="42">
-        <v>15.0</v>
-      </c>
-      <c r="E56" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" s="42">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="42">
-        <v>6.0</v>
-      </c>
-      <c r="D57" s="42">
-        <v>18.5</v>
-      </c>
-      <c r="E57" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="F57" s="42">
-        <v>1700.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="42">
-        <v>7.0</v>
-      </c>
-      <c r="D58" s="42">
-        <v>22.0</v>
-      </c>
-      <c r="E58" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="F58" s="42">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="42">
-        <v>8.0</v>
-      </c>
-      <c r="D59" s="42">
-        <v>26.0</v>
-      </c>
-      <c r="E59" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="F59" s="42">
-        <v>3600.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="42">
-        <v>9.0</v>
-      </c>
-      <c r="D60" s="42">
-        <v>30.0</v>
-      </c>
-      <c r="E60" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="F60" s="42">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="B61" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="42">
-        <v>10.0</v>
-      </c>
-      <c r="D61" s="42">
-        <v>35.0</v>
-      </c>
-      <c r="E61" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="F61" s="42">
-        <v>7000.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B62" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="D62" s="42">
-        <v>1.5</v>
-      </c>
-      <c r="E62" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F62" s="42">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B63" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="D63" s="42">
-        <v>3.5</v>
-      </c>
-      <c r="E63" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="F63" s="42">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="42">
-        <v>3.0</v>
-      </c>
-      <c r="D64" s="42">
-        <v>6.0</v>
-      </c>
-      <c r="E64" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F64" s="42">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="42">
-        <v>4.0</v>
-      </c>
-      <c r="D65" s="42">
-        <v>9.0</v>
-      </c>
-      <c r="E65" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="F65" s="42">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="B66" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="42">
-        <v>5.0</v>
-      </c>
-      <c r="D66" s="42">
-        <v>12.5</v>
-      </c>
-      <c r="E66" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="F66" s="42">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="B67" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="42">
-        <v>6.0</v>
-      </c>
-      <c r="D67" s="42">
-        <v>16.5</v>
-      </c>
-      <c r="E67" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="F67" s="42">
-        <v>1700.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B68" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="42">
-        <v>7.0</v>
-      </c>
-      <c r="D68" s="42">
-        <v>21.0</v>
-      </c>
-      <c r="E68" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="F68" s="42">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="B69" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="42">
-        <v>8.0</v>
-      </c>
-      <c r="D69" s="42">
-        <v>26.0</v>
-      </c>
-      <c r="E69" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="F69" s="42">
-        <v>3600.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B70" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="42">
-        <v>9.0</v>
-      </c>
-      <c r="D70" s="42">
-        <v>31.5</v>
-      </c>
-      <c r="E70" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="F70" s="42">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" s="42">
-        <v>10.0</v>
-      </c>
-      <c r="D71" s="42">
-        <v>37.5</v>
-      </c>
-      <c r="E71" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="F71" s="42">
-        <v>7000.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="C72" s="20">
-        <v>9.0</v>
-      </c>
-      <c r="D72" s="20">
-        <v>31.5</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="F72" s="21">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C73" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="D73" s="10">
-        <v>37.5</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="F73" s="12">
-        <v>7000.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/재능.xlsx
+++ b/재능.xlsx
@@ -223,61 +223,61 @@
     <t>투사체_속도_증가</t>
   </si>
   <si>
-    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 1)</t>
+    <t>투사체 &lt;color=#ff00b1&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 1)</t>
   </si>
   <si>
     <t>talent_projectile_speed_02</t>
   </si>
   <si>
-    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 2)</t>
+    <t>투사체 &lt;color=#ff00b1&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 2)</t>
   </si>
   <si>
     <t>talent_projectile_speed_03</t>
   </si>
   <si>
-    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 3)</t>
+    <t>투사체 &lt;color=#ff00b1&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 3)</t>
   </si>
   <si>
     <t>talent_projectile_speed_04</t>
   </si>
   <si>
-    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 4)</t>
+    <t>투사체 &lt;color=#ff00b1&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 4)</t>
   </si>
   <si>
     <t>talent_projectile_speed_05</t>
   </si>
   <si>
-    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 5)</t>
+    <t>투사체 &lt;color=#ff00b1&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 5)</t>
   </si>
   <si>
     <t>talent_projectile_speed_06</t>
   </si>
   <si>
-    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 6)</t>
+    <t>투사체 &lt;color=#ff00b1&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 6)</t>
   </si>
   <si>
     <t>talent_projectile_speed_07</t>
   </si>
   <si>
-    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 7)</t>
+    <t>투사체 &lt;color=#ff00b1&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 7)</t>
   </si>
   <si>
     <t>talent_projectile_speed_08</t>
   </si>
   <si>
-    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 8)</t>
+    <t>투사체 &lt;color=#ff00b1&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 8)</t>
   </si>
   <si>
     <t>talent_projectile_speed_09</t>
   </si>
   <si>
-    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 9)</t>
+    <t>투사체 &lt;color=#ff00b1&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 9)</t>
   </si>
   <si>
     <t>talent_projectile_speed_10</t>
   </si>
   <si>
-    <t>투사체 &lt;color=#ffff00&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 10)</t>
+    <t>투사체 &lt;color=#ff00b1&gt; 속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 10)</t>
   </si>
   <si>
     <t>talent_move_speed_01</t>
@@ -412,61 +412,61 @@
     <t>재화_획득량_증가</t>
   </si>
   <si>
-    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 1)</t>
+    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 1)</t>
   </si>
   <si>
     <t>talent_gold_gain_02</t>
   </si>
   <si>
-    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
+    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
   </si>
   <si>
     <t>talent_gold_gain_03</t>
   </si>
   <si>
-    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
+    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
   </si>
   <si>
     <t>talent_gold_gain_04</t>
   </si>
   <si>
-    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
+    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
   </si>
   <si>
     <t>talent_gold_gain_05</t>
   </si>
   <si>
-    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
+    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
   </si>
   <si>
     <t>talent_gold_gain_06</t>
   </si>
   <si>
-    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
+    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
   </si>
   <si>
     <t>talent_gold_gain_07</t>
   </si>
   <si>
-    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
+    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
   </si>
   <si>
     <t>talent_gold_gain_08</t>
   </si>
   <si>
-    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
+    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
   </si>
   <si>
     <t>talent_gold_gain_09</t>
   </si>
   <si>
-    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
+    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
   </si>
   <si>
     <t>talent_gold_gain_10</t>
   </si>
   <si>
-    <t>&lt;color=#fff800&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
+    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
   </si>
   <si>
     <t>talent_gold_range_01</t>
@@ -722,6 +722,9 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,9 +742,6 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -2038,7 +2038,7 @@
       <c r="H25" s="12">
         <v>200.0</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3242,7 +3242,7 @@
       <c r="H53" s="12">
         <v>7000.0</v>
       </c>
-      <c r="I53" s="3"/>
+      <c r="I53" s="31"/>
       <c r="J53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -3285,7 +3285,7 @@
       <c r="H54" s="6">
         <v>100.0</v>
       </c>
-      <c r="I54" s="3"/>
+      <c r="I54" s="31"/>
       <c r="J54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -4121,14 +4121,14 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="31"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="35"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="36"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="L74" s="3"/>
@@ -4148,14 +4148,14 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
       <c r="F75" s="38"/>
       <c r="G75" s="39"/>
-      <c r="H75" s="35"/>
+      <c r="H75" s="36"/>
       <c r="I75" s="3"/>
       <c r="J75" s="40"/>
       <c r="L75" s="3"/>
@@ -4175,14 +4175,14 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
       <c r="F76" s="38"/>
       <c r="G76" s="39"/>
-      <c r="H76" s="35"/>
+      <c r="H76" s="36"/>
       <c r="I76" s="40"/>
       <c r="J76" s="40"/>
       <c r="L76" s="3"/>
@@ -4202,14 +4202,14 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
       <c r="F77" s="38"/>
       <c r="G77" s="39"/>
-      <c r="H77" s="35"/>
+      <c r="H77" s="36"/>
       <c r="I77" s="40"/>
       <c r="J77" s="40"/>
       <c r="L77" s="3"/>
@@ -4229,14 +4229,14 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
       <c r="F78" s="38"/>
       <c r="G78" s="39"/>
-      <c r="H78" s="35"/>
+      <c r="H78" s="36"/>
       <c r="I78" s="40"/>
       <c r="J78" s="40"/>
       <c r="L78" s="3"/>
@@ -4256,14 +4256,14 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="36"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
       <c r="F79" s="38"/>
       <c r="G79" s="39"/>
-      <c r="H79" s="35"/>
+      <c r="H79" s="36"/>
       <c r="I79" s="40"/>
       <c r="J79" s="40"/>
       <c r="L79" s="3"/>
@@ -4283,14 +4283,14 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="36"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
       <c r="F80" s="38"/>
       <c r="G80" s="39"/>
-      <c r="H80" s="35"/>
+      <c r="H80" s="36"/>
       <c r="I80" s="40"/>
       <c r="J80" s="40"/>
       <c r="L80" s="3"/>
@@ -4310,14 +4310,14 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
       <c r="F81" s="38"/>
       <c r="G81" s="39"/>
-      <c r="H81" s="35"/>
+      <c r="H81" s="36"/>
       <c r="I81" s="40"/>
       <c r="J81" s="40"/>
       <c r="L81" s="3"/>
@@ -4337,14 +4337,14 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
       <c r="F82" s="38"/>
       <c r="G82" s="39"/>
-      <c r="H82" s="35"/>
+      <c r="H82" s="36"/>
       <c r="I82" s="40"/>
       <c r="J82" s="40"/>
       <c r="L82" s="3"/>
@@ -4364,14 +4364,14 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="38"/>
       <c r="G83" s="39"/>
-      <c r="H83" s="35"/>
+      <c r="H83" s="36"/>
       <c r="I83" s="40"/>
       <c r="J83" s="40"/>
       <c r="L83" s="3"/>
@@ -4391,14 +4391,14 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="36"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
       <c r="F84" s="38"/>
       <c r="G84" s="39"/>
-      <c r="H84" s="35"/>
+      <c r="H84" s="36"/>
       <c r="I84" s="40"/>
       <c r="J84" s="40"/>
       <c r="L84" s="3"/>

--- a/재능.xlsx
+++ b/재능.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
   <si>
     <t>파일명</t>
   </si>
@@ -406,69 +406,6 @@
     <t>&lt;color=#b299ff&gt; 공격속도 증가 &lt;/color&gt;수치가 증가합니다. (현재 재능 레벨: 10)</t>
   </si>
   <si>
-    <t>talent_gold_gain_01</t>
-  </si>
-  <si>
-    <t>재화_획득량_증가</t>
-  </si>
-  <si>
-    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 1)</t>
-  </si>
-  <si>
-    <t>talent_gold_gain_02</t>
-  </si>
-  <si>
-    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 2)</t>
-  </si>
-  <si>
-    <t>talent_gold_gain_03</t>
-  </si>
-  <si>
-    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 3)</t>
-  </si>
-  <si>
-    <t>talent_gold_gain_04</t>
-  </si>
-  <si>
-    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 4)</t>
-  </si>
-  <si>
-    <t>talent_gold_gain_05</t>
-  </si>
-  <si>
-    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 5)</t>
-  </si>
-  <si>
-    <t>talent_gold_gain_06</t>
-  </si>
-  <si>
-    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 6)</t>
-  </si>
-  <si>
-    <t>talent_gold_gain_07</t>
-  </si>
-  <si>
-    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 7)</t>
-  </si>
-  <si>
-    <t>talent_gold_gain_08</t>
-  </si>
-  <si>
-    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 8)</t>
-  </si>
-  <si>
-    <t>talent_gold_gain_09</t>
-  </si>
-  <si>
-    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 9)</t>
-  </si>
-  <si>
-    <t>talent_gold_gain_10</t>
-  </si>
-  <si>
-    <t>&lt;color=#0019ff&gt; 재화 획득량 &lt;/color&gt;증가 수치가 증가합니다. (현재 재능 레벨: 10)</t>
-  </si>
-  <si>
     <t>talent_gold_range_01</t>
   </si>
   <si>
@@ -725,6 +662,12 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,12 +685,6 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -3265,7 +3202,7 @@
         <v>122</v>
       </c>
       <c r="B54" s="23">
-        <v>7050.0</v>
+        <v>7060.0</v>
       </c>
       <c r="C54" s="24">
         <v>1.0</v>
@@ -3308,7 +3245,7 @@
         <v>125</v>
       </c>
       <c r="B55" s="26">
-        <v>7051.0</v>
+        <v>7061.0</v>
       </c>
       <c r="C55" s="22">
         <v>1.0</v>
@@ -3320,7 +3257,7 @@
         <v>2.0</v>
       </c>
       <c r="F55" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>126</v>
@@ -3351,7 +3288,7 @@
         <v>127</v>
       </c>
       <c r="B56" s="23">
-        <v>7052.0</v>
+        <v>7062.0</v>
       </c>
       <c r="C56" s="29">
         <v>1.0</v>
@@ -3363,7 +3300,7 @@
         <v>3.0</v>
       </c>
       <c r="F56" s="20">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G56" s="23" t="s">
         <v>128</v>
@@ -3394,7 +3331,7 @@
         <v>129</v>
       </c>
       <c r="B57" s="26">
-        <v>7053.0</v>
+        <v>7063.0</v>
       </c>
       <c r="C57" s="22">
         <v>1.0</v>
@@ -3406,7 +3343,7 @@
         <v>4.0</v>
       </c>
       <c r="F57" s="10">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>130</v>
@@ -3437,7 +3374,7 @@
         <v>131</v>
       </c>
       <c r="B58" s="23">
-        <v>7054.0</v>
+        <v>7064.0</v>
       </c>
       <c r="C58" s="29">
         <v>1.0</v>
@@ -3449,7 +3386,7 @@
         <v>5.0</v>
       </c>
       <c r="F58" s="20">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>132</v>
@@ -3480,7 +3417,7 @@
         <v>133</v>
       </c>
       <c r="B59" s="26">
-        <v>7055.0</v>
+        <v>7065.0</v>
       </c>
       <c r="C59" s="22">
         <v>1.0</v>
@@ -3492,7 +3429,7 @@
         <v>6.0</v>
       </c>
       <c r="F59" s="10">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="G59" s="26" t="s">
         <v>134</v>
@@ -3523,19 +3460,19 @@
         <v>135</v>
       </c>
       <c r="B60" s="23">
-        <v>7056.0</v>
-      </c>
-      <c r="C60" s="29">
+        <v>7066.0</v>
+      </c>
+      <c r="C60" s="28">
         <v>1.0</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="28" t="s">
         <v>123</v>
       </c>
       <c r="E60" s="20">
         <v>7.0</v>
       </c>
       <c r="F60" s="20">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>136</v>
@@ -3566,19 +3503,19 @@
         <v>137</v>
       </c>
       <c r="B61" s="26">
-        <v>7057.0</v>
-      </c>
-      <c r="C61" s="22">
+        <v>7067.0</v>
+      </c>
+      <c r="C61" s="26">
         <v>1.0</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="26" t="s">
         <v>123</v>
       </c>
       <c r="E61" s="10">
         <v>8.0</v>
       </c>
       <c r="F61" s="10">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>138</v>
@@ -3609,19 +3546,19 @@
         <v>139</v>
       </c>
       <c r="B62" s="23">
-        <v>7058.0</v>
-      </c>
-      <c r="C62" s="29">
+        <v>7068.0</v>
+      </c>
+      <c r="C62" s="28">
         <v>1.0</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="28" t="s">
         <v>123</v>
       </c>
       <c r="E62" s="20">
         <v>9.0</v>
       </c>
       <c r="F62" s="20">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="G62" s="23" t="s">
         <v>140</v>
@@ -3652,19 +3589,19 @@
         <v>141</v>
       </c>
       <c r="B63" s="26">
-        <v>7059.0</v>
-      </c>
-      <c r="C63" s="22">
+        <v>7069.0</v>
+      </c>
+      <c r="C63" s="26">
         <v>1.0</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="26" t="s">
         <v>123</v>
       </c>
       <c r="E63" s="10">
         <v>10.0</v>
       </c>
       <c r="F63" s="10">
-        <v>29.0</v>
+        <v>20.0</v>
       </c>
       <c r="G63" s="26" t="s">
         <v>142</v>
@@ -3691,30 +3628,14 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="23">
-        <v>7060.0</v>
-      </c>
-      <c r="C64" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F64" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="H64" s="6">
-        <v>100.0</v>
-      </c>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="33"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="L64" s="3"/>
@@ -3734,30 +3655,14 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B65" s="26">
-        <v>7061.0</v>
-      </c>
-      <c r="C65" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E65" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="F65" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H65" s="12">
-        <v>200.0</v>
-      </c>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="33"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="L65" s="3"/>
@@ -3777,30 +3682,14 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="23">
-        <v>7062.0</v>
-      </c>
-      <c r="C66" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E66" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="F66" s="20">
-        <v>6.0</v>
-      </c>
-      <c r="G66" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="H66" s="21">
-        <v>400.0</v>
-      </c>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="L66" s="3"/>
@@ -3820,30 +3709,14 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="26">
-        <v>7063.0</v>
-      </c>
-      <c r="C67" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E67" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="F67" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H67" s="12">
-        <v>700.0</v>
-      </c>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="33"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="L67" s="3"/>
@@ -3863,30 +3736,14 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="23">
-        <v>7064.0</v>
-      </c>
-      <c r="C68" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E68" s="20">
-        <v>5.0</v>
-      </c>
-      <c r="F68" s="20">
-        <v>10.0</v>
-      </c>
-      <c r="G68" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H68" s="21">
-        <v>1100.0</v>
-      </c>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="33"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="L68" s="3"/>
@@ -3906,30 +3763,14 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="B69" s="26">
-        <v>7065.0</v>
-      </c>
-      <c r="C69" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E69" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="F69" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="G69" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="H69" s="12">
-        <v>1700.0</v>
-      </c>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="33"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="L69" s="3"/>
@@ -3949,30 +3790,14 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B70" s="23">
-        <v>7066.0</v>
-      </c>
-      <c r="C70" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E70" s="20">
-        <v>7.0</v>
-      </c>
-      <c r="F70" s="20">
-        <v>14.0</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="H70" s="21">
-        <v>2500.0</v>
-      </c>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="33"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="L70" s="3"/>
@@ -3992,30 +3817,14 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B71" s="26">
-        <v>7067.0</v>
-      </c>
-      <c r="C71" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="F71" s="10">
-        <v>16.0</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="H71" s="12">
-        <v>3600.0</v>
-      </c>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="33"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="L71" s="3"/>
@@ -4035,30 +3844,14 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B72" s="23">
-        <v>7068.0</v>
-      </c>
-      <c r="C72" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E72" s="20">
-        <v>9.0</v>
-      </c>
-      <c r="F72" s="20">
-        <v>18.0</v>
-      </c>
-      <c r="G72" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="H72" s="21">
-        <v>5000.0</v>
-      </c>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="33"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="L72" s="3"/>
@@ -4078,30 +3871,14 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B73" s="26">
-        <v>7069.0</v>
-      </c>
-      <c r="C73" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E73" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="F73" s="10">
-        <v>20.0</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="H73" s="12">
-        <v>7000.0</v>
-      </c>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="33"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="L73" s="3"/>
@@ -4121,14 +3898,14 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="32"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="36"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="38"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="L74" s="3"/>
@@ -4148,14 +3925,14 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="31"/>
       <c r="E75" s="31"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="36"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="38"/>
       <c r="I75" s="3"/>
       <c r="J75" s="40"/>
       <c r="L75" s="3"/>
@@ -4175,14 +3952,14 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
       <c r="D76" s="31"/>
       <c r="E76" s="31"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="36"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="38"/>
       <c r="I76" s="40"/>
       <c r="J76" s="40"/>
       <c r="L76" s="3"/>
@@ -4202,14 +3979,14 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="31"/>
       <c r="E77" s="31"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="36"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="38"/>
       <c r="I77" s="40"/>
       <c r="J77" s="40"/>
       <c r="L77" s="3"/>
@@ -4229,14 +4006,14 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="36"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="38"/>
       <c r="I78" s="40"/>
       <c r="J78" s="40"/>
       <c r="L78" s="3"/>
@@ -4256,14 +4033,14 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="37"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
       <c r="D79" s="31"/>
       <c r="E79" s="31"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="36"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="38"/>
       <c r="I79" s="40"/>
       <c r="J79" s="40"/>
       <c r="L79" s="3"/>
@@ -4283,14 +4060,14 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="37"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="36"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="38"/>
       <c r="I80" s="40"/>
       <c r="J80" s="40"/>
       <c r="L80" s="3"/>
@@ -4310,14 +4087,14 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="31"/>
       <c r="E81" s="31"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="36"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="38"/>
       <c r="I81" s="40"/>
       <c r="J81" s="40"/>
       <c r="L81" s="3"/>
@@ -4337,14 +4114,14 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
       <c r="D82" s="31"/>
       <c r="E82" s="31"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="36"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="38"/>
       <c r="I82" s="40"/>
       <c r="J82" s="40"/>
       <c r="L82" s="3"/>
@@ -4364,14 +4141,14 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="31"/>
       <c r="E83" s="31"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="36"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="38"/>
       <c r="I83" s="40"/>
       <c r="J83" s="40"/>
       <c r="L83" s="3"/>
@@ -4391,14 +4168,14 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="31"/>
       <c r="E84" s="31"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="36"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="38"/>
       <c r="I84" s="40"/>
       <c r="J84" s="40"/>
       <c r="L84" s="3"/>
